--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3472.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3472.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9838891297969377</v>
+        <v>0.8457584381103516</v>
       </c>
       <c r="B1">
-        <v>1.279392429189501</v>
+        <v>1.311477065086365</v>
       </c>
       <c r="C1">
-        <v>1.965423323294311</v>
+        <v>4.653108596801758</v>
       </c>
       <c r="D1">
-        <v>7.325550547486364</v>
+        <v>3.895499467849731</v>
       </c>
       <c r="E1">
-        <v>4.005075327893252</v>
+        <v>0.5210281014442444</v>
       </c>
     </row>
   </sheetData>
